--- a/biology/Botanique/Platanthère_à_deux_feuilles/Platanthère_à_deux_feuilles.xlsx
+++ b/biology/Botanique/Platanthère_à_deux_feuilles/Platanthère_à_deux_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_%C3%A0_deux_feuilles</t>
+          <t>Platanthère_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanthera bifolia
 La Platanthère à deux feuilles (Platanthera bifolia), encore appelée Orchis à deux feuilles, est une espèce d'orchidées terrestres européenne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_%C3%A0_deux_feuilles</t>
+          <t>Platanthère_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Platanthère à deux feuilles se confond facilement avec l'orchis verdâtre.
 Elle s'en distingue par ses loges polliniques parallèles (celles de l'orchis verdâtre sont divergentes).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_%C3%A0_deux_feuilles</t>
+          <t>Platanthère_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce héliophile ou de demi-ombre. Comme humus, elle apprécie le mull carbonaté à acide et un sol riche en base. Elle est indifférente au calcaire.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_%C3%A0_deux_feuilles</t>
+          <t>Platanthère_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Commune dans presque toute la France jusqu'à 2 200 m, de l'étage collinéen à l'étage subalpin, elle est rare en région méditerranéenne.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_%C3%A0_deux_feuilles</t>
+          <t>Platanthère_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce semble fortement attirer le papillon de nuit Autographa gamma qui pourrait jouer un rôle important dans sa pollinisation[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce semble fortement attirer le papillon de nuit Autographa gamma qui pourrait jouer un rôle important dans sa pollinisation.
 </t>
         </is>
       </c>
